--- a/data/output/FV2404_FV2310/QUOTES/15003.xlsx
+++ b/data/output/FV2404_FV2310/QUOTES/15003.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3824" uniqueCount="284">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3845" uniqueCount="284">
+  <si>
+    <t>Segmentname_FV2310</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2310</t>
+  </si>
+  <si>
+    <t>Segment_FV2310</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2310</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2310</t>
+  </si>
+  <si>
+    <t>Code_FV2310</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2310</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2310</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2310</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2404</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2404</t>
+  </si>
+  <si>
+    <t>Segment_FV2404</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2404</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2404</t>
+  </si>
+  <si>
+    <t>Code_FV2404</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2404</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2404</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2404</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -972,6 +972,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U177" totalsRowShown="0">
+  <autoFilter ref="A1:U177"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2310"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2310"/>
+    <tableColumn id="3" name="Segment_FV2310"/>
+    <tableColumn id="4" name="Datenelement_FV2310"/>
+    <tableColumn id="5" name="Segment ID_FV2310"/>
+    <tableColumn id="6" name="Code_FV2310"/>
+    <tableColumn id="7" name="Qualifier_FV2310"/>
+    <tableColumn id="8" name="Beschreibung_FV2310"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2310"/>
+    <tableColumn id="10" name="Bedingung_FV2310"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2404"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2404"/>
+    <tableColumn id="14" name="Segment_FV2404"/>
+    <tableColumn id="15" name="Datenelement_FV2404"/>
+    <tableColumn id="16" name="Segment ID_FV2404"/>
+    <tableColumn id="17" name="Code_FV2404"/>
+    <tableColumn id="18" name="Qualifier_FV2404"/>
+    <tableColumn id="19" name="Beschreibung_FV2404"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2404"/>
+    <tableColumn id="21" name="Bedingung_FV2404"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1261,7 +1291,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -9755,5 +9788,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2404_FV2310/QUOTES/15003.xlsx
+++ b/data/output/FV2404_FV2310/QUOTES/15003.xlsx
@@ -1922,7 +1922,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2634,7 +2634,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2"/>
@@ -2834,7 +2834,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N20" s="2"/>
@@ -3138,7 +3138,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2"/>
@@ -3442,7 +3442,7 @@
       </c>
       <c r="K32" s="2"/>
       <c r="L32" s="4"/>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N32" s="2"/>
@@ -3582,7 +3582,7 @@
       </c>
       <c r="K35" s="2"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="2" t="s">
+      <c r="M35" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N35" s="2" t="s">
@@ -3778,7 +3778,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -3978,7 +3978,7 @@
       </c>
       <c r="K43" s="2"/>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4236,7 +4236,7 @@
       </c>
       <c r="K48" s="2"/>
       <c r="L48" s="4"/>
-      <c r="M48" s="2" t="s">
+      <c r="M48" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N48" s="2" t="s">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="K54" s="2"/>
       <c r="L54" s="4"/>
-      <c r="M54" s="2" t="s">
+      <c r="M54" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N54" s="2" t="s">
@@ -4736,7 +4736,7 @@
       </c>
       <c r="K58" s="2"/>
       <c r="L58" s="4"/>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N58" s="2" t="s">
@@ -5106,7 +5106,7 @@
       </c>
       <c r="K65" s="2"/>
       <c r="L65" s="4"/>
-      <c r="M65" s="2" t="s">
+      <c r="M65" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N65" s="2" t="s">
@@ -5410,7 +5410,7 @@
       </c>
       <c r="K71" s="2"/>
       <c r="L71" s="4"/>
-      <c r="M71" s="2" t="s">
+      <c r="M71" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N71" s="2" t="s">
@@ -5548,7 +5548,7 @@
       </c>
       <c r="K74" s="2"/>
       <c r="L74" s="4"/>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N74" s="2" t="s">
@@ -5700,7 +5700,7 @@
         <v>274</v>
       </c>
       <c r="L77" s="4"/>
-      <c r="M77" s="2" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N77" s="2" t="s">
@@ -6114,7 +6114,7 @@
       </c>
       <c r="K85" s="2"/>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6326,7 +6326,7 @@
       </c>
       <c r="K89" s="2"/>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6530,7 +6530,7 @@
       </c>
       <c r="K93" s="2"/>
       <c r="L93" s="4"/>
-      <c r="M93" s="2" t="s">
+      <c r="M93" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N93" s="2" t="s">
@@ -6730,7 +6730,7 @@
       </c>
       <c r="K97" s="2"/>
       <c r="L97" s="4"/>
-      <c r="M97" s="2" t="s">
+      <c r="M97" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N97" s="2" t="s">
@@ -6932,7 +6932,7 @@
         <v>279</v>
       </c>
       <c r="L101" s="4"/>
-      <c r="M101" s="2" t="s">
+      <c r="M101" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N101" s="2" t="s">
@@ -7346,7 +7346,7 @@
       </c>
       <c r="K109" s="2"/>
       <c r="L109" s="4"/>
-      <c r="M109" s="2" t="s">
+      <c r="M109" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N109" s="2" t="s">
@@ -7558,7 +7558,7 @@
       </c>
       <c r="K113" s="2"/>
       <c r="L113" s="4"/>
-      <c r="M113" s="2" t="s">
+      <c r="M113" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N113" s="2" t="s">
@@ -7762,7 +7762,7 @@
       </c>
       <c r="K117" s="2"/>
       <c r="L117" s="4"/>
-      <c r="M117" s="2" t="s">
+      <c r="M117" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N117" s="2" t="s">
@@ -7962,7 +7962,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8164,7 +8164,7 @@
         <v>281</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8578,7 +8578,7 @@
       </c>
       <c r="K133" s="2"/>
       <c r="L133" s="4"/>
-      <c r="M133" s="2" t="s">
+      <c r="M133" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N133" s="2" t="s">
@@ -8792,7 +8792,7 @@
         <v>283</v>
       </c>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -8998,7 +8998,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9198,7 +9198,7 @@
       </c>
       <c r="K145" s="2"/>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9400,7 +9400,7 @@
         <v>284</v>
       </c>
       <c r="L149" s="4"/>
-      <c r="M149" s="2" t="s">
+      <c r="M149" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N149" s="2" t="s">
@@ -9814,7 +9814,7 @@
       </c>
       <c r="K157" s="2"/>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10028,7 +10028,7 @@
         <v>283</v>
       </c>
       <c r="L161" s="4"/>
-      <c r="M161" s="2" t="s">
+      <c r="M161" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N161" s="2" t="s">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="K165" s="2"/>
       <c r="L165" s="4"/>
-      <c r="M165" s="2" t="s">
+      <c r="M165" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N165" s="2" t="s">
@@ -10434,7 +10434,7 @@
       </c>
       <c r="K169" s="2"/>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -10636,7 +10636,7 @@
       </c>
       <c r="K173" s="2"/>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N173" s="2"/>
@@ -10728,7 +10728,7 @@
       </c>
       <c r="K175" s="2"/>
       <c r="L175" s="4"/>
-      <c r="M175" s="2" t="s">
+      <c r="M175" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N175" s="2"/>
